--- a/Data/DataBase.xlsx
+++ b/Data/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Unluminous\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065D0BB0-1385-4885-AE55-902AAC73B659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11EEB0B-EBCA-4455-A1AE-3EB7893EBBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9030" yWindow="1140" windowWidth="18585" windowHeight="13230" activeTab="1" xr2:uid="{1ACD24A0-6B71-4B2B-915C-3C27F2E2713E}"/>
+    <workbookView xWindow="1620" yWindow="1335" windowWidth="21525" windowHeight="13230" activeTab="1" xr2:uid="{1ACD24A0-6B71-4B2B-915C-3C27F2E2713E}"/>
   </bookViews>
   <sheets>
     <sheet name="아이템" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,7 +150,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>싸구려 헬멧</t>
+    <t>평범한 투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급스런 투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설의 투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">평범한 갑옷 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급스런 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설의 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 바지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설의 판금갑옷 바지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급스런 바지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디서나 구할수 있는 투구다.  착용하면 방어력이 10% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉽게 볼수없는 고급스러워 보이는 투구다. 착용하면 방어력과 최대체력이 20% 증가한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,16 +790,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEB9638-185F-4ACE-A90E-A67EDDC308BD}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="10" max="10" width="33.125" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="10" max="10" width="82" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -800,6 +840,190 @@
       </c>
       <c r="B2" t="s">
         <v>29</v>
+      </c>
+      <c r="C2">
+        <v>300</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>700</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>2100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>2101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>700</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>2102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>900</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>2200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>400</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>2201</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>700</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>2202</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>900</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DataBase.xlsx
+++ b/Data/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Unluminous\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11EEB0B-EBCA-4455-A1AE-3EB7893EBBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACADEA5-4051-41F7-878F-130AA5546257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1335" windowWidth="21525" windowHeight="13230" activeTab="1" xr2:uid="{1ACD24A0-6B71-4B2B-915C-3C27F2E2713E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1ACD24A0-6B71-4B2B-915C-3C27F2E2713E}"/>
   </bookViews>
   <sheets>
     <sheet name="아이템" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,11 +186,203 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어디서나 구할수 있는 투구다.  착용하면 방어력이 10% 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쉽게 볼수없는 고급스러워 보이는 투구다. 착용하면 방어력과 최대체력이 20% 증가한다</t>
+    <t>어디서나 구할수 있는 투구다.  착용시 방어력이 5% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉽게 볼수없는 고급스러워 보이는 투구다. 착용시 방어력과 최대체력이 10% 증가한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우 드물게 발견 되는 전설의 투구다. 착용시 최대 체력과 방어력이 15%, 공격력과 이동속도가 5% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디서나 구할수 있는 갑옷이다.  착용시 방어력이 10% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉽게 볼수없는 고급스러워 보이는 투구다. 착용시 방어력과 최대체력이 15% 증가한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우 드물게 발견 되는 전설의 갑옷이다. 착용시 최대 체력과 방어력이 20%, 공격력과 이동속도가 10% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디서나 구할수 있는 바지다.  착용시 방어력이 10% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우 드물게 발견 되는 전설의 판금갑옷 바지다. 착용시 최대 체력과 방어력이 20%, 공격력과 이동속도가 10% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉽게 볼수없는 고급스러워 보이는 바지다. 착용시 방어력과 최대체력이 10% 증가한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 장비 세트 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급스런 장비 세트 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설의 장비 세트 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급스런 장비 세트를 모두 입었을때 나타나는 효과이다. 최대 체력과 방어력이 10% 증가된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 장비 세트를 모두 입었을때 나타는 효과이다. 방어력이 10% 증가된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전설의 장비 세트를 모두 입었을때 나타나는 효과이다. 최대체력과 공격력과 방어력이 30%, 이동속도가 20% 증가한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 거미보다 방어력과 이동속도가 더 높은 거미 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스켈레톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전에서 흔히 볼수있는 평범한 스켈레톤 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루 리자드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 리자드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도가 느리고 공격력이 강한 블루 리자드입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루 리자드보다 속도가 빠른 레드 리자드 입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린 울프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 울프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠른 속도로 이동하는 강력한 그린 울프 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무서운 속도로 플레이어에게 접근해 공격하는 레드 울프 입니다. 그린 울프보다 강력합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전에서 흔히 볼수있는 사이즈가 큰 거미입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스파이더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섀도우 스파이더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피어크랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골렘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많은 체력과 빠른 속도, 높은 방어력을 가지고있는 갑각류 엘리트 몬스터 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리플 쉘 터틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어릴때 부터 던전에서 커온 오래된 거북이형 엘리트 몬스터 입니다. 삼중 등딱지가 있어 방어력이 상당히 높지만 이동속도는 느립니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미들 드래곤 블루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미들 드래곤 그린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미들 드래곤 퍼플</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미들 드래곤 레드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롱 드래곤 블루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롱 드래곤 그린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롱 드래곤 레드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>락 드래곤 블루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>락 드래곤 그린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>락 드래곤 퍼플</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>락 드래곤 레드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롱 드래곤 퍼플</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 층의 보스 몬스터 입니다. 엘리트 몬스터에 비해 체력이 많고 매우 거대한 몸집을 자랑합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전을 지키고 있는엘리트 몬스터 골렘입니다. 방어력이 높은 특성을 가지고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 층의 보스 몬스터 입니다. 엘리트 몬스터에 비해 체력이 많고 매우 거대한 몸집을 자랑합니다. 다른 드래곤에 비해 방어력과 체력이 높지만 공격력이 약합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 층의 보스 몬스터 입니다. 엘리트 몬스터에 비해 체력이 많고 매우 거대한 몸집을 자랑합니다. 다른 드래곤에 비해 체력이 적지만 공격력이 강합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -792,14 +984,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEB9638-185F-4ACE-A90E-A67EDDC308BD}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="10" max="10" width="82" customWidth="1"/>
+    <col min="10" max="10" width="102.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -850,8 +1042,17 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
       <c r="H2">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>38</v>
@@ -874,10 +1075,16 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>39</v>
@@ -900,10 +1107,19 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -922,8 +1138,20 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
       <c r="H5">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -942,8 +1170,20 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="H6">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -962,8 +1202,20 @@
       <c r="E7">
         <v>2</v>
       </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
       <c r="H7">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -982,8 +1234,20 @@
       <c r="E8">
         <v>0</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
       <c r="H8">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1002,8 +1266,20 @@
       <c r="E9">
         <v>1</v>
       </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
       <c r="H9">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1022,8 +1298,20 @@
       <c r="E10">
         <v>2</v>
       </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
       <c r="H10">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1034,18 +1322,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A0E2F3-B54A-46C7-8ED3-1D926999BC1E}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="6" max="6" width="48.25" customWidth="1"/>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="102.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1053,21 +1343,85 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>3000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>3001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1078,15 +1432,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65FD212-6729-4C29-B93B-8E0256D8B3C5}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="8" max="8" width="31.375" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="8" max="8" width="142.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1119,6 +1474,573 @@
       <c r="A2">
         <v>10000</v>
       </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>10001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1.5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>10002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>10003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0.7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>10004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0.9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>10005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1.5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>10006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>11000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>150</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>1.2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>11001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>0.7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>11002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>150</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>12000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>250</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>250</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>12002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>250</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>12003</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>250</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>12004</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>250</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>12005</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>250</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>12006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>250</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>12007</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>250</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>12008</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>400</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>40</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>12009</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>400</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>40</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>12010</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>400</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>40</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>12011</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>400</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>40</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/DataBase.xlsx
+++ b/Data/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Unluminous\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACADEA5-4051-41F7-878F-130AA5546257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EA9A2A-C3D1-4492-95AD-0F5EC977F9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1ACD24A0-6B71-4B2B-915C-3C27F2E2713E}"/>
+    <workbookView xWindow="2175" yWindow="660" windowWidth="26085" windowHeight="13710" activeTab="3" xr2:uid="{1ACD24A0-6B71-4B2B-915C-3C27F2E2713E}"/>
   </bookViews>
   <sheets>
     <sheet name="아이템" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,54 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미들 드래곤 블루</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미들 드래곤 그린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미들 드래곤 퍼플</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미들 드래곤 레드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱 드래곤 블루</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱 드래곤 그린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱 드래곤 레드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>락 드래곤 블루</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>락 드래곤 그린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>락 드래곤 퍼플</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>락 드래곤 레드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱 드래곤 퍼플</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>각 층의 보스 몬스터 입니다. 엘리트 몬스터에 비해 체력이 많고 매우 거대한 몸집을 자랑합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,6 +335,142 @@
   </si>
   <si>
     <t>각 층의 보스 몬스터 입니다. 엘리트 몬스터에 비해 체력이 많고 매우 거대한 몸집을 자랑합니다. 다른 드래곤에 비해 체력이 적지만 공격력이 강합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_spider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_shadowSpider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_skeleton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_redLizard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_blueLizard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_redWolf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_greenWolf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_spearCrab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_turtle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그린 미들 드래곤 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">블루 미들 드래곤 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">퍼플 미들 드래곤 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">레드 미들 드래곤 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루 롱 드래곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린 롱 드래곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼플 롱 드래곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 롱 드래곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루 락 드래곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린 락 드래곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼플 락 드래곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 락 드래곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_blueMidDragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_greenMidDragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_purpleMidDragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_redLongDragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_blueLongDragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_greenLongDragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_purpleLongDragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_blueRockDragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_greenRockDragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_purpleRockDragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_redRockDragon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1432,19 +1520,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65FD212-6729-4C29-B93B-8E0256D8B3C5}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="142.5" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="6.875" customWidth="1"/>
+    <col min="9" max="9" width="131.75" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1452,594 +1543,663 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>10000</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>77</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>40</v>
       </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
       <c r="F2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>10001</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>78</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>50</v>
       </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
       <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>10002</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>79</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>50</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>15</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>10003</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>81</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>70</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>15</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>10004</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>80</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>70</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>15</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.9</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>10005</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" t="s">
+        <v>83</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>60</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1.5</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>10006</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" t="s">
+        <v>82</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>70</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>15</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>6</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>11000</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
       </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="C9" t="s">
+        <v>84</v>
       </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>150</v>
       </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
       <c r="F9">
         <v>10</v>
       </c>
       <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
         <v>1.2</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>11001</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
       </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="C10" t="s">
+        <v>85</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>150</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>30</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.7</v>
       </c>
-      <c r="H10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>11002</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
       </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="C11" t="s">
+        <v>86</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>150</v>
       </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
       <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
         <v>30</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.5</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>12000</v>
       </c>
       <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>250</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>72</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>250</v>
-      </c>
-      <c r="E12">
-        <v>15</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12001</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>250</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>15</v>
       </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
       <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>12002</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14">
         <v>2</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>250</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>15</v>
       </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
       <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>12003</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>250</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>15</v>
       </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
       <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>12004</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>250</v>
-      </c>
-      <c r="E16">
-        <v>20</v>
       </c>
       <c r="F16">
         <v>20</v>
       </c>
       <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>12005</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>250</v>
-      </c>
-      <c r="E17">
-        <v>20</v>
       </c>
       <c r="F17">
         <v>20</v>
       </c>
       <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>12006</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18">
         <v>2</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>250</v>
-      </c>
-      <c r="E18">
-        <v>20</v>
       </c>
       <c r="F18">
         <v>20</v>
       </c>
       <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>12007</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19">
         <v>2</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>250</v>
-      </c>
-      <c r="E19">
-        <v>20</v>
       </c>
       <c r="F19">
         <v>20</v>
       </c>
       <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>12008</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20">
         <v>2</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>400</v>
       </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
       <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
         <v>40</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>12009</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>400</v>
       </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
       <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
         <v>40</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>12010</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22">
         <v>2</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>400</v>
       </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
       <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
         <v>40</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>12011</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23">
         <v>2</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>400</v>
       </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
       <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
         <v>40</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>86</v>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
